--- a/3_PB.xlsx
+++ b/3_PB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\ppr_project\Графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ivan\Dev\ppr_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{177BEF29-08C4-454C-BD8A-88CE561998C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A58C77-D5F2-4242-A52C-BFB336E3D21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AD01D38-F68C-4CAC-9420-32863D71677D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{3AD01D38-F68C-4CAC-9420-32863D71677D}"/>
   </bookViews>
   <sheets>
     <sheet name="03_ПБ" sheetId="1" r:id="rId1"/>
@@ -143,13 +143,6 @@
 - визуальный контроль работоспособности ПЛК по светодиодной индикации</t>
   </si>
   <si>
-    <t>Диагностика:
-- просмотр сообщ. диагн. буфера ПЛК на наличие прогр. ошибок (при нал. тех. возм.);
-- диагностика работы модулей ПЛК (при наличии апп. («Hardware») диа-гностики);
-- просмотр диагн. сообщений в ЖС на АРМ;
-- анализ диагн. сообщений и устр. ошибок</t>
-  </si>
-  <si>
     <t>Снятие архивных данных УИРГ, синхронизация времени УИРГ.</t>
   </si>
   <si>
@@ -304,6 +297,12 @@
   </si>
   <si>
     <t>САУ ВЗ, осмотр кабельной продукции</t>
+  </si>
+  <si>
+    <t>Проверка передачи прав управл. АСУ ТП, АСУ Э: 
+1. Опер. КС на РПУ и обратно;
+2. ЛЧ система PSI с ПЭБа и с РПУ;
+3. ЛЧ переносным пультом управления с ПЭБа, УС и УРС</t>
   </si>
 </sst>
 </file>
@@ -514,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,28 +699,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1041,20 +1043,20 @@
   </sheetPr>
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A70" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.54296875" style="69" customWidth="1"/>
+    <col min="1" max="1" width="47.54296875" style="67" customWidth="1"/>
     <col min="2" max="2" width="51.26953125" style="2" customWidth="1"/>
     <col min="3" max="7" width="9.1796875" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.54296875" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.54296875" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.1796875" style="2" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" style="74" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" style="72" customWidth="1"/>
     <col min="14" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
@@ -1595,12 +1597,12 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" ht="108.5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="77.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
+      <c r="B16" s="75" t="s">
+        <v>86</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="18"/>
@@ -1625,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="5" t="s">
@@ -1653,10 +1655,10 @@
     </row>
     <row r="18" spans="1:18" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="6"/>
@@ -1684,10 +1686,10 @@
     </row>
     <row r="19" spans="1:18" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="6"/>
@@ -1709,10 +1711,10 @@
     </row>
     <row r="20" spans="1:18" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="6"/>
@@ -1740,10 +1742,10 @@
     </row>
     <row r="21" spans="1:18" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -1771,10 +1773,10 @@
     </row>
     <row r="22" spans="1:18" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -1803,10 +1805,10 @@
     </row>
     <row r="23" spans="1:18" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -1835,10 +1837,10 @@
     </row>
     <row r="24" spans="1:18" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="5" t="s">
@@ -1866,10 +1868,10 @@
     </row>
     <row r="25" spans="1:18" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="5" t="s">
@@ -1897,10 +1899,10 @@
     </row>
     <row r="26" spans="1:18" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="31"/>
@@ -1922,10 +1924,10 @@
     </row>
     <row r="27" spans="1:18" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="5" t="s">
@@ -1953,10 +1955,10 @@
     </row>
     <row r="28" spans="1:18" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
@@ -1980,10 +1982,10 @@
     </row>
     <row r="29" spans="1:18" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>19</v>
@@ -2027,10 +2029,10 @@
     </row>
     <row r="30" spans="1:18" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -2052,10 +2054,10 @@
     </row>
     <row r="31" spans="1:18" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>19</v>
@@ -2099,10 +2101,10 @@
     </row>
     <row r="32" spans="1:18" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -2130,10 +2132,10 @@
     </row>
     <row r="33" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>55</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>56</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="36" t="s">
@@ -2161,10 +2163,10 @@
     </row>
     <row r="34" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="36" t="s">
@@ -2192,10 +2194,10 @@
     </row>
     <row r="35" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="36" t="s">
@@ -2217,10 +2219,10 @@
     </row>
     <row r="36" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="40"/>
@@ -2248,10 +2250,10 @@
     </row>
     <row r="37" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>58</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>59</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -2273,10 +2275,10 @@
     </row>
     <row r="38" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="37" t="s">
         <v>60</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>61</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
@@ -2304,10 +2306,10 @@
     </row>
     <row r="39" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -2335,10 +2337,10 @@
     </row>
     <row r="40" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
@@ -2360,10 +2362,10 @@
     </row>
     <row r="41" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>62</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>63</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
@@ -2391,10 +2393,10 @@
     </row>
     <row r="42" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -2422,10 +2424,10 @@
     </row>
     <row r="43" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
@@ -2447,10 +2449,10 @@
     </row>
     <row r="44" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
@@ -2478,10 +2480,10 @@
     </row>
     <row r="45" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -2509,10 +2511,10 @@
     </row>
     <row r="46" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
@@ -2534,10 +2536,10 @@
     </row>
     <row r="47" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="16"/>
@@ -2565,10 +2567,10 @@
     </row>
     <row r="48" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>65</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>66</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
@@ -2596,10 +2598,10 @@
     </row>
     <row r="49" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="5" t="s">
@@ -2627,10 +2629,10 @@
     </row>
     <row r="50" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>19</v>
@@ -2658,10 +2660,10 @@
     </row>
     <row r="51" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="46" t="s">
         <v>68</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>69</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="5" t="s">
@@ -2689,10 +2691,10 @@
     </row>
     <row r="52" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="48"/>
       <c r="D52" s="5" t="s">
@@ -2720,10 +2722,10 @@
     </row>
     <row r="53" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5" t="s">
@@ -2751,10 +2753,10 @@
     </row>
     <row r="54" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="48"/>
       <c r="D54" s="49"/>
@@ -2776,10 +2778,10 @@
     </row>
     <row r="55" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="48"/>
       <c r="D55" s="5" t="s">
@@ -2807,10 +2809,10 @@
     </row>
     <row r="56" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="5" t="s">
@@ -2838,10 +2840,10 @@
     </row>
     <row r="57" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="5" t="s">
@@ -2869,10 +2871,10 @@
     </row>
     <row r="58" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="52"/>
@@ -2894,10 +2896,10 @@
     </row>
     <row r="59" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>75</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="10" t="s">
@@ -2925,10 +2927,10 @@
     </row>
     <row r="60" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="54"/>
       <c r="D60" s="10" t="s">
@@ -2956,10 +2958,10 @@
     </row>
     <row r="61" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="56"/>
       <c r="D61" s="10" t="s">
@@ -2981,10 +2983,10 @@
     </row>
     <row r="62" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>19</v>
@@ -3012,10 +3014,10 @@
     </row>
     <row r="63" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>19</v>
@@ -3043,10 +3045,10 @@
     </row>
     <row r="64" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
@@ -3068,10 +3070,10 @@
     </row>
     <row r="65" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>19</v>
@@ -3099,10 +3101,10 @@
     </row>
     <row r="66" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>19</v>
@@ -3130,10 +3132,10 @@
     </row>
     <row r="67" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="31"/>
       <c r="D67" s="31"/>
@@ -3155,10 +3157,10 @@
     </row>
     <row r="68" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>19</v>
@@ -3186,10 +3188,10 @@
     </row>
     <row r="69" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>19</v>
@@ -3217,10 +3219,10 @@
     </row>
     <row r="70" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
@@ -3242,10 +3244,10 @@
     </row>
     <row r="71" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>19</v>
@@ -3273,10 +3275,10 @@
     </row>
     <row r="72" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>19</v>
@@ -3304,10 +3306,10 @@
     </row>
     <row r="73" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C73" s="31"/>
       <c r="D73" s="31"/>
@@ -3329,10 +3331,10 @@
     </row>
     <row r="74" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>19</v>
@@ -3360,10 +3362,10 @@
     </row>
     <row r="75" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>19</v>
@@ -3391,10 +3393,10 @@
     </row>
     <row r="76" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
@@ -3416,10 +3418,10 @@
     </row>
     <row r="77" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>19</v>
@@ -3447,10 +3449,10 @@
     </row>
     <row r="78" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>19</v>
@@ -3478,10 +3480,10 @@
     </row>
     <row r="79" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
@@ -3503,10 +3505,10 @@
     </row>
     <row r="80" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -3534,10 +3536,10 @@
     </row>
     <row r="81" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
@@ -3565,10 +3567,10 @@
     </row>
     <row r="82" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
@@ -3590,10 +3592,10 @@
     </row>
     <row r="83" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
@@ -3621,10 +3623,10 @@
     </row>
     <row r="84" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -3652,10 +3654,10 @@
     </row>
     <row r="85" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30"/>
@@ -3677,10 +3679,10 @@
     </row>
     <row r="86" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
@@ -3708,10 +3710,10 @@
     </row>
     <row r="87" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -3739,10 +3741,10 @@
     </row>
     <row r="88" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C88" s="30"/>
       <c r="D88" s="30"/>
@@ -3764,10 +3766,10 @@
     </row>
     <row r="89" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
@@ -3795,10 +3797,10 @@
     </row>
     <row r="90" spans="1:17" ht="31" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -3826,10 +3828,10 @@
     </row>
     <row r="91" spans="1:17" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
@@ -3868,8 +3870,8 @@
     </row>
     <row r="95" spans="1:17" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.35">
       <c r="A95" s="64"/>
-      <c r="B95" s="67"/>
-      <c r="C95" s="67"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="73"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -3878,20 +3880,20 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="68"/>
-      <c r="M95" s="68"/>
-      <c r="N95" s="68"/>
+      <c r="L95" s="74"/>
+      <c r="M95" s="74"/>
+      <c r="N95" s="74"/>
     </row>
     <row r="96" spans="1:17" ht="19" x14ac:dyDescent="0.3">
-      <c r="B96" s="70"/>
-      <c r="E96" s="70"/>
-      <c r="G96" s="70"/>
+      <c r="B96" s="68"/>
+      <c r="E96" s="68"/>
+      <c r="G96" s="68"/>
       <c r="L96" s="61"/>
       <c r="M96" s="64"/>
       <c r="N96" s="61"/>
     </row>
     <row r="97" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B97" s="71"/>
+      <c r="B97" s="69"/>
       <c r="C97" s="61"/>
       <c r="D97" s="61"/>
       <c r="E97" s="61"/>
@@ -3904,7 +3906,7 @@
       <c r="M97" s="2"/>
     </row>
     <row r="98" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B98" s="72"/>
+      <c r="B98" s="70"/>
       <c r="C98" s="61"/>
       <c r="D98" s="61"/>
       <c r="E98" s="61"/>
@@ -3914,9 +3916,9 @@
       <c r="I98" s="61"/>
       <c r="J98" s="61"/>
       <c r="K98" s="61"/>
-      <c r="L98" s="68"/>
-      <c r="M98" s="68"/>
-      <c r="N98" s="68"/>
+      <c r="L98" s="74"/>
+      <c r="M98" s="74"/>
+      <c r="N98" s="74"/>
     </row>
     <row r="99" spans="2:14" ht="19" x14ac:dyDescent="0.3">
       <c r="B99" s="61"/>
@@ -3934,7 +3936,7 @@
       <c r="N99" s="61"/>
     </row>
     <row r="100" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B100" s="73"/>
+      <c r="B100" s="71"/>
       <c r="C100" s="61"/>
       <c r="D100" s="61"/>
       <c r="E100" s="61"/>
@@ -3944,9 +3946,9 @@
       <c r="I100" s="61"/>
       <c r="J100" s="61"/>
       <c r="K100" s="61"/>
-      <c r="L100" s="68"/>
-      <c r="M100" s="68"/>
-      <c r="N100" s="68"/>
+      <c r="L100" s="74"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
     </row>
     <row r="101" spans="2:14" ht="19" x14ac:dyDescent="0.3">
       <c r="B101" s="61"/>
